--- a/data/trans_dic/P18_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,58%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 37,84</t>
+          <t>9,56; 63,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,0; 11,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,94</t>
+          <t>0,0; 14,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,88</t>
+          <t>0,93; 14,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 33,14</t>
+          <t>0,0; 11,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 12,56</t>
+          <t>16,91; 43,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,59</t>
+          <t>7,28; 27,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 14,94</t>
+          <t>4,74; 22,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 30,59</t>
+          <t>1,97; 16,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,84</t>
+          <t>3,77; 24,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 12,74</t>
+          <t>17,1; 47,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,84</t>
+          <t>4,73; 17,49</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 16,42</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 12,19</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 14,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,81</t>
+          <t>4,61; 13,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,41</t>
+          <t>0,58; 5,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,44</t>
+          <t>2,27; 9,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,58</t>
+          <t>2,69; 11,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,17</t>
+          <t>1,61; 10,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,54</t>
+          <t>5,3; 13,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,36</t>
+          <t>1,61; 7,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,79</t>
+          <t>3,51; 10,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,4</t>
+          <t>2,04; 7,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,92</t>
+          <t>0,0; 3,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,04</t>
+          <t>5,65; 11,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,54</t>
+          <t>1,61; 5,35</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 8,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 8,11</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 5,26</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 9,68</t>
+          <t>2,1; 9,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,69</t>
+          <t>0,0; 4,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,78</t>
+          <t>2,09; 10,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,07</t>
+          <t>0,79; 7,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,36</t>
+          <t>0,59; 7,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,79</t>
+          <t>2,07; 7,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,54</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,82</t>
+          <t>2,0; 7,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,44</t>
+          <t>0,49; 4,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,91</t>
+          <t>1,01; 7,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,71</t>
+          <t>2,83; 7,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,25</t>
+          <t>0,27; 2,91</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 7,47</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 4,98</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 5,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 13,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 11,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 16,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 3,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 7,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 7,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 6,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 12,57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 6,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 8,98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 5,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 6,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 13,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 4,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 7,37</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 5,91</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 5,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,58%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27901</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5685</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5473</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30575</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21257</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14364</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8081</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23082</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58476</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25445</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18473</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13766</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>28556</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9689; 64831</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15050</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14615</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1043; 16075</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20549</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18841; 48678</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10154; 38481</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5474; 26392</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2331; 19272</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7946; 51575</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36373; 101292</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12684; 46941</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8646; 35972</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5560; 28041</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9399; 56162</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28857</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8765</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18705</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21749</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21088</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33206</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16910</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24623</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15795</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4840</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62064</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25675</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>43328</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>37543</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>25929</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16773; 47426</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2456; 23141</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8469; 34094</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10674; 45215</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8337; 53117</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20464; 53198</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7453; 33502</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13276; 41254</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7627; 29533</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17208</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42371; 85256</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14321; 47464</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>29242; 65628</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22805; 62400</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11531; 53074</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14644</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14004</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8295</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8489</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15389</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4652</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14070</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5392</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12289</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30033</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8955</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28074</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13687</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>20778</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6014; 27613</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13769</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5620; 29337</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2179; 19737</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2089; 25736</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7438; 28562</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16498</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6885; 26994</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1607; 16205</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4017; 29626</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18298; 47786</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2070; 22089</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15761; 45856</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5982; 30040</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9633; 41734</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>71402</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17255</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36818</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35729</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35050</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79170</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42819</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>53057</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29268</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>40212</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>150572</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>60074</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>89875</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>64996</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>75262</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>45144; 124605</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7604; 35193</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21203; 57992</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17931; 55729</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17759; 64478</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56511; 107764</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26894; 66735</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>36256; 75293</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16620; 45692</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21104; 75533</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>113442; 213436</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>38245; 89858</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>64081; 116682</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>44358; 94674</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>46961; 118666</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
